--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7620,364 +7626,364 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7626,364 +7620,364 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>7</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>7</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>7</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>8</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>7</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>9</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>7</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>10</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>7</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>11</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>7</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>12</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>7</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>13</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
